--- a/seguimiento/Notas_3209636_Javascript.xlsx
+++ b/seguimiento/Notas_3209636_Javascript.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\PRODUCCIÓN DE MULTIMEDIA\FICHAS 2025\4TO TRIMESTRE\02_FICHA 3209636 (JAVASCRIPT 2-4pm)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B27F45A-0E94-4CC2-9BDE-5784147F7070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35797776-C335-4ABD-AF0C-9C6534087771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
     <author>AndresSanchez</author>
   </authors>
   <commentList>
-    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{2CA7B6A8-3541-4AC4-84A2-CCCE87F5B92E}">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{2CA7B6A8-3541-4AC4-84A2-CCCE87F5B92E}">
       <text>
         <r>
           <rPr>
@@ -62,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{85A63B95-5E87-492C-A6BD-632C6F62D8EC}">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{85A63B95-5E87-492C-A6BD-632C6F62D8EC}">
       <text>
         <r>
           <rPr>
@@ -86,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{C63428F9-9C2E-48AA-8455-5E3D9BD3F613}">
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{C63428F9-9C2E-48AA-8455-5E3D9BD3F613}">
       <text>
         <r>
           <rPr>
@@ -110,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{3387572F-712F-4C04-A744-8EEE7D35D52D}">
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{3387572F-712F-4C04-A744-8EEE7D35D52D}">
       <text>
         <r>
           <rPr>
@@ -134,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{8D23245A-1BCA-478B-B48D-01D18381F8AD}">
+    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{8D23245A-1BCA-478B-B48D-01D18381F8AD}">
       <text>
         <r>
           <rPr>
@@ -158,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{BBE8E3A0-D977-49CE-BC7A-3CCEC34C787A}">
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{BBE8E3A0-D977-49CE-BC7A-3CCEC34C787A}">
       <text>
         <r>
           <rPr>
@@ -182,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{EAFAC258-7E70-4C94-A148-DD2196F007A2}">
+    <comment ref="D16" authorId="0" shapeId="0" xr:uid="{EAFAC258-7E70-4C94-A148-DD2196F007A2}">
       <text>
         <r>
           <rPr>
@@ -206,7 +206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F16" authorId="0" shapeId="0" xr:uid="{5F9E8CA4-2A9A-42B2-BC58-A3A1EED812AB}">
+    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{5F9E8CA4-2A9A-42B2-BC58-A3A1EED812AB}">
       <text>
         <r>
           <rPr>
@@ -230,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G16" authorId="0" shapeId="0" xr:uid="{31BD128D-DE16-4416-98F3-8328786C6A18}">
+    <comment ref="F16" authorId="0" shapeId="0" xr:uid="{31BD128D-DE16-4416-98F3-8328786C6A18}">
       <text>
         <r>
           <rPr>
@@ -254,7 +254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{3EB268BF-D59C-4573-BFC2-E301AFF70265}">
+    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{3EB268BF-D59C-4573-BFC2-E301AFF70265}">
       <text>
         <r>
           <rPr>
@@ -278,7 +278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F18" authorId="0" shapeId="0" xr:uid="{CBFEB302-BC72-418D-9E64-9AEA926C1C46}">
+    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{CBFEB302-BC72-418D-9E64-9AEA926C1C46}">
       <text>
         <r>
           <rPr>
@@ -302,7 +302,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G18" authorId="0" shapeId="0" xr:uid="{8AAB4190-F4A7-4C17-94EE-D0C2F0BA5C84}">
+    <comment ref="F18" authorId="0" shapeId="0" xr:uid="{8AAB4190-F4A7-4C17-94EE-D0C2F0BA5C84}">
       <text>
         <r>
           <rPr>
@@ -326,7 +326,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G20" authorId="0" shapeId="0" xr:uid="{2AB5A141-91B2-448F-92E8-9FBE0E042B9C}">
+    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{2AB5A141-91B2-448F-92E8-9FBE0E042B9C}">
       <text>
         <r>
           <rPr>
@@ -350,7 +350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G21" authorId="0" shapeId="0" xr:uid="{AC3D0F5E-67A1-4423-BC29-D5413BBD74FF}">
+    <comment ref="F21" authorId="0" shapeId="0" xr:uid="{AC3D0F5E-67A1-4423-BC29-D5413BBD74FF}">
       <text>
         <r>
           <rPr>
@@ -374,7 +374,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E23" authorId="0" shapeId="0" xr:uid="{E9042152-9C33-4642-8B6F-4D07921B4A9B}">
+    <comment ref="D23" authorId="0" shapeId="0" xr:uid="{E9042152-9C33-4642-8B6F-4D07921B4A9B}">
       <text>
         <r>
           <rPr>
@@ -398,7 +398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F23" authorId="0" shapeId="0" xr:uid="{96C77CC5-22C6-4BC7-9E34-89E200387996}">
+    <comment ref="E23" authorId="0" shapeId="0" xr:uid="{96C77CC5-22C6-4BC7-9E34-89E200387996}">
       <text>
         <r>
           <rPr>
@@ -422,7 +422,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G23" authorId="0" shapeId="0" xr:uid="{4CB5C752-9650-42CD-B3C7-0F35C30856CE}">
+    <comment ref="F23" authorId="0" shapeId="0" xr:uid="{4CB5C752-9650-42CD-B3C7-0F35C30856CE}">
       <text>
         <r>
           <rPr>
@@ -446,7 +446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D24" authorId="0" shapeId="0" xr:uid="{7BDF92C3-F107-47EB-B8B2-5CB66294361A}">
+    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{7BDF92C3-F107-47EB-B8B2-5CB66294361A}">
       <text>
         <r>
           <rPr>
@@ -470,7 +470,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F24" authorId="0" shapeId="0" xr:uid="{C643F39F-9A50-47FF-8DF3-CDAC455F7059}">
+    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{C643F39F-9A50-47FF-8DF3-CDAC455F7059}">
       <text>
         <r>
           <rPr>
@@ -494,7 +494,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G24" authorId="0" shapeId="0" xr:uid="{1C2D0CEA-C484-431C-91C0-2F581D512C25}">
+    <comment ref="F24" authorId="0" shapeId="0" xr:uid="{1C2D0CEA-C484-431C-91C0-2F581D512C25}">
       <text>
         <r>
           <rPr>
@@ -518,7 +518,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G27" authorId="0" shapeId="0" xr:uid="{06FABAEF-F33B-4C6A-8E04-CB1E0664CC02}">
+    <comment ref="F27" authorId="0" shapeId="0" xr:uid="{06FABAEF-F33B-4C6A-8E04-CB1E0664CC02}">
       <text>
         <r>
           <rPr>
@@ -542,7 +542,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E28" authorId="0" shapeId="0" xr:uid="{39DC50B8-B20C-4202-957F-54FBA6D33222}">
+    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{39DC50B8-B20C-4202-957F-54FBA6D33222}">
       <text>
         <r>
           <rPr>
@@ -566,7 +566,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F28" authorId="0" shapeId="0" xr:uid="{FBA615F4-5A33-4AD8-8AAD-65D891F4ED7C}">
+    <comment ref="E28" authorId="0" shapeId="0" xr:uid="{FBA615F4-5A33-4AD8-8AAD-65D891F4ED7C}">
       <text>
         <r>
           <rPr>
@@ -590,7 +590,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G28" authorId="0" shapeId="0" xr:uid="{775242F5-4AA5-4968-884B-76C3317DD02A}">
+    <comment ref="F28" authorId="0" shapeId="0" xr:uid="{775242F5-4AA5-4968-884B-76C3317DD02A}">
       <text>
         <r>
           <rPr>
@@ -619,7 +619,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
   <si>
     <t>Centro de Servicios y Gestión Empresarial</t>
   </si>
@@ -708,63 +708,6 @@
     <t>1015072639</t>
   </si>
   <si>
-    <t>GitHub</t>
-  </si>
-  <si>
-    <t>https://github.com/andres7111/javascript-3209636</t>
-  </si>
-  <si>
-    <t>https://github.com/Stivenvera/javascript-3209636</t>
-  </si>
-  <si>
-    <t>https://github.com/Hillary856/javascript-3209636</t>
-  </si>
-  <si>
-    <t>https://github.com/MiguelangelNA2/javascript-3209636</t>
-  </si>
-  <si>
-    <t>https://github.com/velezyz/javascript-3209636</t>
-  </si>
-  <si>
-    <t>https://github.com/IsaLol1A/javascript---3209636</t>
-  </si>
-  <si>
-    <t>https://github.com/A1exis0o7/javascript-3209636</t>
-  </si>
-  <si>
-    <t>https://github.com/diegochaves97/javascript-3209636</t>
-  </si>
-  <si>
-    <t>https://github.com/Luisach2020/javascript-3209636</t>
-  </si>
-  <si>
-    <t>https://github.com/lu16253-nh/javascript-3209636</t>
-  </si>
-  <si>
-    <t>https://github.com/juanLS07/javascript-3209636</t>
-  </si>
-  <si>
-    <t>https://github.com/kevinrestrepo2008/javascript-3209636</t>
-  </si>
-  <si>
-    <t>https://github.com/katebernal/javascript-3209636</t>
-  </si>
-  <si>
-    <t>https://github.com/lu-nrl/javascript-3209636</t>
-  </si>
-  <si>
-    <t>https://github.com/melany1722/javascript-3209636</t>
-  </si>
-  <si>
-    <t>https://github.com/samuel-acevedo26/javascript-3209636</t>
-  </si>
-  <si>
-    <t>https://github.com/sofiamedina-sketch/javascript-3209636</t>
-  </si>
-  <si>
-    <t>https://github.com/gomez855/javascript-3209636</t>
-  </si>
-  <si>
     <t>- -</t>
   </si>
   <si>
@@ -790,16 +733,13 @@
   </si>
   <si>
     <t>Reorganizar carpetas</t>
-  </si>
-  <si>
-    <t>No se encuentra repositorio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -811,14 +751,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -877,14 +809,6 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -916,7 +840,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -931,15 +855,6 @@
       <bottom style="thin">
         <color theme="0"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -982,55 +897,50 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Bueno" xfId="2" builtinId="26"/>
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
-    <cellStyle name="Incorrecto" xfId="3" builtinId="27"/>
+  <cellStyles count="3">
+    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
+    <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1373,32 +1283,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20BC403D-556D-4728-9FB1-5C207450CA51}">
-  <dimension ref="A2:I28"/>
+  <dimension ref="A2:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" customWidth="1"/>
-    <col min="5" max="8" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="7" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1406,7 +1315,7 @@
         <v>3209636</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1414,551 +1323,467 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="12" t="s">
-        <v>49</v>
-      </c>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="11">
+      <c r="C9" s="9">
         <v>100</v>
       </c>
-      <c r="E9" s="11">
-        <v>25</v>
-      </c>
-      <c r="F9" s="11">
-        <v>25</v>
-      </c>
-      <c r="G9" s="11">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D9" s="9">
+        <v>25</v>
+      </c>
+      <c r="E9" s="9">
+        <v>25</v>
+      </c>
+      <c r="F9" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="11">
+      <c r="C10" s="9">
         <v>100</v>
       </c>
-      <c r="E10" s="11">
+      <c r="D10" s="9">
+        <v>25</v>
+      </c>
+      <c r="E10" s="9">
         <v>25</v>
       </c>
       <c r="F10" s="11">
-        <v>25</v>
-      </c>
-      <c r="G10" s="16">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="11">
+      <c r="C11" s="9">
         <v>100</v>
       </c>
-      <c r="E11" s="11">
-        <v>25</v>
-      </c>
-      <c r="F11" s="11">
-        <v>25</v>
-      </c>
-      <c r="G11" s="11">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D11" s="9">
+        <v>25</v>
+      </c>
+      <c r="E11" s="9">
+        <v>25</v>
+      </c>
+      <c r="F11" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="11">
+      <c r="C12" s="9">
         <v>100</v>
       </c>
-      <c r="E12" s="11">
-        <v>25</v>
-      </c>
-      <c r="F12" s="11">
-        <v>25</v>
-      </c>
-      <c r="G12" s="11">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D12" s="9">
+        <v>25</v>
+      </c>
+      <c r="E12" s="9">
+        <v>25</v>
+      </c>
+      <c r="F12" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="11">
+      <c r="C13" s="9">
         <v>100</v>
       </c>
-      <c r="E13" s="11">
-        <v>25</v>
-      </c>
-      <c r="F13" s="11">
-        <v>25</v>
-      </c>
-      <c r="G13" s="11">
-        <v>25</v>
-      </c>
-      <c r="I13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D13" s="9">
+        <v>25</v>
+      </c>
+      <c r="E13" s="9">
+        <v>25</v>
+      </c>
+      <c r="F13" s="9">
+        <v>25</v>
+      </c>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="11">
+      <c r="C14" s="9">
         <v>100</v>
       </c>
-      <c r="E14" s="11">
-        <v>25</v>
-      </c>
-      <c r="F14" s="11">
-        <v>25</v>
-      </c>
-      <c r="G14" s="11">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D14" s="9">
+        <v>25</v>
+      </c>
+      <c r="E14" s="9">
+        <v>25</v>
+      </c>
+      <c r="F14" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="11">
+      <c r="C15" s="9">
         <v>100</v>
       </c>
-      <c r="E15" s="11">
-        <v>25</v>
-      </c>
-      <c r="F15" s="11">
-        <v>25</v>
-      </c>
-      <c r="G15" s="11">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D15" s="9">
+        <v>25</v>
+      </c>
+      <c r="E15" s="9">
+        <v>25</v>
+      </c>
+      <c r="F15" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="16">
-        <v>0</v>
-      </c>
-      <c r="F16" s="16">
-        <v>0</v>
-      </c>
-      <c r="G16" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C16" s="11">
+        <v>0</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="11">
+      <c r="C17" s="9">
         <v>100</v>
       </c>
-      <c r="E17" s="11">
-        <v>25</v>
-      </c>
-      <c r="F17" s="11">
-        <v>25</v>
-      </c>
-      <c r="G17" s="11">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D17" s="9">
+        <v>25</v>
+      </c>
+      <c r="E17" s="9">
+        <v>25</v>
+      </c>
+      <c r="F17" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="14">
-        <v>0</v>
+      <c r="C18" s="10">
+        <v>0</v>
+      </c>
+      <c r="D18" s="9">
+        <v>25</v>
       </c>
       <c r="E18" s="11">
-        <v>25</v>
-      </c>
-      <c r="F18" s="16">
-        <v>0</v>
-      </c>
-      <c r="G18" s="16">
-        <v>0</v>
-      </c>
-      <c r="I18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="11">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="11">
+      <c r="C19" s="9">
         <v>100</v>
       </c>
-      <c r="E19" s="11">
-        <v>25</v>
-      </c>
-      <c r="F19" s="11">
-        <v>25</v>
-      </c>
-      <c r="G19" s="11">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D19" s="9">
+        <v>25</v>
+      </c>
+      <c r="E19" s="9">
+        <v>25</v>
+      </c>
+      <c r="F19" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>7</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="11">
+      <c r="C20" s="9">
         <v>100</v>
       </c>
-      <c r="E20" s="11">
+      <c r="D20" s="9">
+        <v>25</v>
+      </c>
+      <c r="E20" s="9">
         <v>25</v>
       </c>
       <c r="F20" s="11">
-        <v>25</v>
-      </c>
-      <c r="G20" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="11">
+      <c r="C21" s="9">
         <v>100</v>
       </c>
-      <c r="E21" s="11">
+      <c r="D21" s="9">
+        <v>25</v>
+      </c>
+      <c r="E21" s="9">
         <v>25</v>
       </c>
       <c r="F21" s="11">
-        <v>25</v>
-      </c>
-      <c r="G21" s="16">
-        <v>0</v>
-      </c>
-      <c r="I21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>7</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="11">
+      <c r="C22" s="9">
         <v>100</v>
       </c>
-      <c r="E22" s="11">
-        <v>25</v>
-      </c>
-      <c r="F22" s="11">
-        <v>25</v>
-      </c>
-      <c r="G22" s="11">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D22" s="9">
+        <v>25</v>
+      </c>
+      <c r="E22" s="9">
+        <v>25</v>
+      </c>
+      <c r="F22" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>7</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>47</v>
+      <c r="C23" s="9">
+        <v>100</v>
       </c>
       <c r="D23" s="11">
-        <v>100</v>
-      </c>
-      <c r="E23" s="16">
-        <v>0</v>
-      </c>
-      <c r="F23" s="16">
-        <v>0</v>
-      </c>
-      <c r="G23" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>11</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="14">
-        <v>0</v>
+      <c r="C24" s="10">
+        <v>0</v>
+      </c>
+      <c r="D24" s="9">
+        <v>25</v>
       </c>
       <c r="E24" s="11">
-        <v>25</v>
-      </c>
-      <c r="F24" s="16">
-        <v>0</v>
-      </c>
-      <c r="G24" s="16">
-        <v>0</v>
-      </c>
-      <c r="I24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="11">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>7</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="11">
+      <c r="C25" s="9">
         <v>100</v>
       </c>
-      <c r="E25" s="11">
-        <v>25</v>
-      </c>
-      <c r="F25" s="11">
-        <v>25</v>
-      </c>
-      <c r="G25" s="11">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+      <c r="D25" s="9">
+        <v>25</v>
+      </c>
+      <c r="E25" s="9">
+        <v>25</v>
+      </c>
+      <c r="F25" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>7</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="11">
+      <c r="C27" s="9">
         <v>100</v>
       </c>
-      <c r="E27" s="11">
+      <c r="D27" s="9">
+        <v>25</v>
+      </c>
+      <c r="E27" s="9">
         <v>25</v>
       </c>
       <c r="F27" s="11">
-        <v>25</v>
-      </c>
-      <c r="G27" s="16">
-        <v>0</v>
-      </c>
-      <c r="I27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>7</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>46</v>
+      <c r="C28" s="9">
+        <v>100</v>
       </c>
       <c r="D28" s="11">
-        <v>100</v>
-      </c>
-      <c r="E28" s="16">
-        <v>0</v>
-      </c>
-      <c r="F28" s="16">
-        <v>0</v>
-      </c>
-      <c r="G28" s="16">
-        <v>0</v>
-      </c>
-      <c r="I28" t="s">
-        <v>56</v>
+        <v>0</v>
+      </c>
+      <c r="E28" s="11">
+        <v>0</v>
+      </c>
+      <c r="F28" s="11">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="D7:G7"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1" xr:uid="{3FC20D9E-4FB4-42F7-941A-67939736F747}"/>
-    <hyperlink ref="C11" r:id="rId2" xr:uid="{1BFDF89D-64DF-49A1-80C1-4AF05D07096E}"/>
-    <hyperlink ref="C14" r:id="rId3" xr:uid="{AF01E2E6-2105-4798-BE63-F666B9A190BE}"/>
-    <hyperlink ref="C25" r:id="rId4" xr:uid="{286A9CDD-D021-45EF-8047-511DCF27F731}"/>
-    <hyperlink ref="C13" r:id="rId5" xr:uid="{4C0F538E-223C-4B1D-AC25-432D29F54D28}"/>
-    <hyperlink ref="C15" r:id="rId6" xr:uid="{94CF6BDF-EECF-42B0-ADB0-5558FA789B0C}"/>
-    <hyperlink ref="C9" r:id="rId7" xr:uid="{33D7F1BC-0FBC-4D73-B262-77CE8F0AD844}"/>
-    <hyperlink ref="C12" r:id="rId8" xr:uid="{AFB6D3FE-6871-4712-A36D-FAB5F0625216}"/>
-    <hyperlink ref="C20" r:id="rId9" xr:uid="{046C82F7-2B13-445A-A20C-707110434E86}"/>
-    <hyperlink ref="C21" r:id="rId10" xr:uid="{8DA65FD4-FE31-40E0-B08A-3E341619A38E}"/>
-    <hyperlink ref="C17" r:id="rId11" xr:uid="{E447838F-25D5-427A-A5EA-F0D57044E9CC}"/>
-    <hyperlink ref="C19" r:id="rId12" xr:uid="{A6F0166E-422A-45DD-963A-6564AE6C2FCA}"/>
-    <hyperlink ref="C18" r:id="rId13" xr:uid="{B26A5791-8D5C-4EE4-9921-B300A50EFBC8}"/>
-    <hyperlink ref="C22" r:id="rId14" xr:uid="{DB9BC823-6513-4DE3-A800-8DB08F1102AB}"/>
-    <hyperlink ref="C24" r:id="rId15" xr:uid="{C7E68D52-E3A0-4819-8806-3E1591C6D3B2}"/>
-    <hyperlink ref="C27" r:id="rId16" xr:uid="{7F770C53-4040-4C28-8890-0268810D26C9}"/>
-    <hyperlink ref="C28" r:id="rId17" xr:uid="{3A81EB16-5C0F-4AA5-9115-17F0EDA0F227}"/>
-    <hyperlink ref="C23" r:id="rId18" xr:uid="{61DBD64A-5BA4-4892-B347-E7AFB6958F05}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId19"/>
-  <legacyDrawing r:id="rId20"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>